--- a/medicine/Mort/Nasionale_Vrouemonument/Nasionale_Vrouemonument.xlsx
+++ b/medicine/Mort/Nasionale_Vrouemonument/Nasionale_Vrouemonument.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Nasionale Vrouemonument (monument national aux femmes en afrikaans) est un monument sud-africain situé à Bloemfontein dans la province de l'État-Libre. Il commémore la mémoire des quelque 27 000 femmes et enfants qui sont morts dans les camps de concentration britanniques durant la guerre des Boers. 
-Ce monument a été conçu par l'architecte Francois Soff (1867–1936) et le sculpteur Anton van Wouw. Il est inscrit au registre des monuments nationaux depuis 1982 au niveau des sites historiques de province[1],[2].
+Ce monument a été conçu par l'architecte Francois Soff (1867–1936) et le sculpteur Anton van Wouw. Il est inscrit au registre des monuments nationaux depuis 1982 au niveau des sites historiques de province,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se compose d'une obélisque de 35 mètres de hauteur et de murets semi-circulaires sur ses côtés. 
 Les statues centrales en bronze représentant deux femmes affligées et un enfant mourant dans le camp de Springfontein ont été sculptées par Anton van Wouw, qui s'est directement inspiré d'une description faite par la militante pacifiste anglaise Emily Hobhouse. Celle-ci, durant son voyage dans l'État libre d'Orange, avait vu à la gare de Springfontein, une mère assise tenant son enfant mourant.
@@ -545,9 +559,11 @@
           <t>Inauguration et développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le monument a été inauguré le 16 décembre 1913, en présence de près de 20 000 Sud-Africains. Date symbolique, le 16 décembre fait référence à la date de la Bataille de Blood River qui n'a pourtant rien à voir avec ce que le monument commémore[3]. La presse anglophone regretta le choix qui avait été fait d’inaugurer le monument un 16 décembre et non à un autre jour de l'année, estimant que ce choix était lié à l'agenda nationaliste afrikaner qui ravivait les souvenirs afrikaners de leurs victoires passées, alors qu'une autre date n'aurait pas pour autant diminuer la solennité de l'événement[3]. Pour Martinus Steyn, le Vrouemonument devait cependant restaurer le respect et la confiance des Afrikaners en leur nation, en rappelant ainsi ces victoires, alors que les Afrikaners venaient de subir une grande défaite, la perte de leur indépendance et que nombreuses étaient les familles Afrikaners encore dans le deuil de leurs proches et en proie à de grandes difficultés économiques (à la guerre s'était ajouté des épidémies, notamment de peste bovine et de graves périodes de sécheresses[3]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le monument a été inauguré le 16 décembre 1913, en présence de près de 20 000 Sud-Africains. Date symbolique, le 16 décembre fait référence à la date de la Bataille de Blood River qui n'a pourtant rien à voir avec ce que le monument commémore. La presse anglophone regretta le choix qui avait été fait d’inaugurer le monument un 16 décembre et non à un autre jour de l'année, estimant que ce choix était lié à l'agenda nationaliste afrikaner qui ravivait les souvenirs afrikaners de leurs victoires passées, alors qu'une autre date n'aurait pas pour autant diminuer la solennité de l'événement. Pour Martinus Steyn, le Vrouemonument devait cependant restaurer le respect et la confiance des Afrikaners en leur nation, en rappelant ainsi ces victoires, alors que les Afrikaners venaient de subir une grande défaite, la perte de leur indépendance et que nombreuses étaient les familles Afrikaners encore dans le deuil de leurs proches et en proie à de grandes difficultés économiques (à la guerre s'était ajouté des épidémies, notamment de peste bovine et de graves périodes de sécheresses).
 Treize ans plus tard, les cendres d'Emily Hobhouse ont été déposées au pied du monument. 
 À côté du monument se trouvent aussi les tombes du général et homme politique Christiaan de Wet, du révérend J.D. Kestell, du président de l'État libre d'Orange Marthinus Theunis Steyn et de son épouse.
 En 1931, un Musée de la Guerre Anglo-Boer est inauguré à proximité du Monument national aux femmes.
